--- a/ConsoleApp1/bin/Debug/net8.0/Database1_Data.xlsx
+++ b/ConsoleApp1/bin/Debug/net8.0/Database1_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otvyagis\Documents\GitHub\APRIORI\ConsoleApp1\bin\Debug\net8.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\notso\OneDrive\Desktop\GitHub\APRIORI\ConsoleApp1\bin\Debug\net8.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA54F0BB-9CD6-49BF-BD20-5CF2448CF7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7340AE3-AFB9-45ED-964D-CE2A9CCBE57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -96,25 +96,41 @@
     <t>Тип_продукта</t>
   </si>
   <si>
-    <t>Плохая, Хорошая, Отличная</t>
-  </si>
-  <si>
-    <t>Нет, Частичная, Полная</t>
-  </si>
-  <si>
-    <t>Отказ, Кредитная_карта, Инвестиции, Ипотека, Сберегательный_счёт</t>
+    <t>Отличная, Хорошая, Плохая</t>
+  </si>
+  <si>
+    <t>Безработный, Неактивный, Частичная, Временная, Полная</t>
+  </si>
+  <si>
+    <t>Инвестиции, Ипотека, Сберегательный_счёт, Кредит</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,22 +193,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -526,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +589,7 @@
       <c r="C2" s="5">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -619,9 +641,9 @@
         <v>13</v>
       </c>
       <c r="C5" s="5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -637,9 +659,9 @@
         <v>15</v>
       </c>
       <c r="C6" s="5">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="5" t="s">
